--- a/CrowdSourcingStudy/Dialogues_test/data_dialogu2.xlsx
+++ b/CrowdSourcingStudy/Dialogues_test/data_dialogu2.xlsx
@@ -24,7 +24,8 @@
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t xml:space="preserve">    &lt;b&gt;A:&lt;/b&gt;  "What kind of food do you like?"  &lt;br&gt; &lt;br&gt; &amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B:&lt;/b&gt; "Japanese is my favorite food." &lt;br&gt; &lt;br&gt; &lt;b&gt;A:&lt;/b&gt;  "Let's eat Japanese food tonight."&lt;br&gt; &lt;br&gt; &amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B:&lt;/b&gt; "Okay, let's eat Japanese." &lt;br&gt; &lt;br&gt; &lt;b&gt;A:&lt;/b&gt; "Let's go to the Samura restaurant" &lt;br&gt; &lt;br&gt; &amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B:&lt;/b&gt; "Sorry, I'd rather choose something else." &lt;br&gt; &lt;br&gt; &lt;b&gt;A:&lt;/b&gt;  "Do you prefer noisy or quiet restaurants?"&lt;br&gt; &lt;br&gt; &amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B:&lt;/b&gt; "I like the most quiet restaurants." &lt;br&gt; &lt;br&gt; &lt;b&gt;A:&lt;/b&gt; "Let's go to a restaurant with a quiet ambiance." &lt;br&gt; &lt;br&gt; &amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B:&lt;/b&gt; "Okay, let's choose a quiet restaurant. &lt;br&gt; &lt;br&gt; &lt;b&gt;A:&lt;/b&gt;  "Let's go to the Jiliya restaurant"&lt;br&gt; &lt;br&gt; &amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B:&lt;/b&gt; "Okay, I'll call to book a table."&lt;br&gt; &lt;br&gt; </t>
+    <t xml:space="preserve"> &lt;b&gt; A:  "What kind of food do you like?"  &lt;br&gt; &lt;br&gt; &amp;nbsp&amp;nbsp&amp;nbsp&amp;nbspB: "Japanese is my favorite food." &lt;br&gt; &lt;br&gt; A:  "Let's eat Japanese food tonight."&lt;br&gt; &lt;br&gt; &amp;nbsp&amp;nbsp&amp;nbsp&amp;nbspB: "Okay, let's eat Japanese." &lt;br&gt; &lt;br&gt; A: "Let's go to the Samura restaurant" &lt;br&gt; &lt;br&gt; &amp;nbsp&amp;nbsp&amp;nbsp&amp;nbspB: "Sorry, I'd rather choose something else." &lt;br&gt; &lt;br&gt; A:  "Do you prefer noisy or quiet restaurants?"&lt;br&gt; &lt;br&gt; &amp;nbsp&amp;nbsp&amp;nbsp&amp;nbspB: "I prefer quiet restaurants." &lt;br&gt; &lt;br&gt; A: " Let's go to a quiet
+restaurant." &lt;br&gt; &lt;br&gt; &amp;nbsp&amp;nbsp&amp;nbsp&amp;nbspB: "Okay, let's choose a quiet restaurant. &lt;br&gt; &lt;br&gt; A:  "Let's go to the Jiliya restaurant"&lt;br&gt; &lt;br&gt; &amp;nbsp&amp;nbsp&amp;nbsp&amp;nbspB: "Okay, I'll call to book a table."&lt;br&gt; &lt;br&gt; &lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -366,9 +367,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -380,13 +383,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
